--- a/ResultsOfTheSessionNUnitTest/ReportsNUnitTest/Resources/GroupSessionResultReport.xlsx
+++ b/ResultsOfTheSessionNUnitTest/ReportsNUnitTest/Resources/GroupSessionResultReport.xlsx
@@ -30,10 +30,10 @@
     <t>Average assessment</t>
   </si>
   <si>
+    <t>AC12</t>
+  </si>
+  <si>
     <t>GR55</t>
-  </si>
-  <si>
-    <t>AC12</t>
   </si>
   <si>
     <t>Summer examination and credit session</t>
@@ -143,13 +143,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -157,13 +157,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -218,13 +218,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>7.8</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="4">
@@ -232,13 +232,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
-        <v>8.2</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
